--- a/TickTagHardware/GerberProductionFiles/TickTagREV4/BOM-TickTagREV4.xlsx
+++ b/TickTagHardware/GerberProductionFiles/TickTagREV4/BOM-TickTagREV4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Promotion\_GITHUB\TickTag\TickTagHardware\GerberProductionFiles\TickTagREV4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Promotion\_GITHUB\TickTagOpenSource\TickTagHardware\GerberProductionFiles\TickTagREV4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D1E64-348E-4C88-BDD5-4FFA17088843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D7E09-E04C-42B4-8CEA-21641F0139A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TickTagREV4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>ATTINY</t>
-  </si>
-  <si>
-    <t>ATTINY1616-MFR</t>
   </si>
   <si>
     <t>Atmel</t>
@@ -214,6 +211,12 @@
   </si>
   <si>
     <t>Generic 0402 (1005 metric) Resistor (+/- 1%)</t>
+  </si>
+  <si>
+    <t>ATTINY1626-MFR</t>
+  </si>
+  <si>
+    <t>ATTINY1616-MFR also possible</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,21 +643,23 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -680,16 +685,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>11</v>
@@ -723,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
@@ -766,19 +771,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>12</v>
@@ -809,19 +814,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>12</v>
@@ -852,19 +857,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>12</v>
@@ -895,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>12</v>
@@ -938,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>12</v>
@@ -981,19 +986,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>12</v>
@@ -1024,19 +1029,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>12</v>
@@ -1067,19 +1072,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>12</v>
@@ -1110,19 +1115,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>12</v>
@@ -1153,19 +1158,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>12</v>
@@ -1196,19 +1201,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -1239,19 +1244,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -1282,19 +1287,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>12</v>
